--- a/Team-Data/2007-08/12-6-2007-08.xlsx
+++ b/Team-Data/2007-08/12-6-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,88 +733,88 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.444</v>
+        <v>0.412</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="J2" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.441</v>
+        <v>0.444</v>
       </c>
       <c r="L2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="M2" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.301</v>
+        <v>0.311</v>
       </c>
       <c r="O2" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="P2" t="n">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R2" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T2" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U2" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V2" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W2" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X2" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.8</v>
+        <v>20.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.3</v>
+        <v>93.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>16</v>
@@ -756,43 +823,43 @@
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>27</v>
       </c>
       <c r="AK2" t="n">
         <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ2" t="n">
         <v>9</v>
       </c>
       <c r="AR2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AS2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>24</v>
@@ -804,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -944,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
         <v>4</v>
@@ -974,10 +1041,10 @@
         <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>18</v>
@@ -986,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -1108,22 +1175,22 @@
         <v>-5.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>14</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>23</v>
@@ -1156,22 +1223,22 @@
         <v>30</v>
       </c>
       <c r="AT4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU4" t="n">
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
@@ -1180,7 +1247,7 @@
         <v>19</v>
       </c>
       <c r="BB4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="n">
         <v>26</v>
@@ -1323,13 +1390,13 @@
         <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP5" t="n">
         <v>24</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1365,7 +1432,7 @@
         <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1557,7 @@
         <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
@@ -1502,7 +1569,7 @@
         <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1514,7 +1581,7 @@
         <v>25</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
         <v>14</v>
@@ -1523,10 +1590,10 @@
         <v>9</v>
       </c>
       <c r="AU6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>18</v>
@@ -1547,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="BC6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
         <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.632</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
@@ -1594,94 +1661,94 @@
         <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>79.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="O7" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="R7" t="n">
+        <v>10</v>
+      </c>
+      <c r="S7" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="W7" t="n">
         <v>5.7</v>
       </c>
-      <c r="M7" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O7" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="P7" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="R7" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="U7" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="V7" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.6</v>
-      </c>
       <c r="X7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.5</v>
+        <v>102.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN7" t="n">
         <v>23</v>
@@ -1696,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="n">
         <v>9</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
         <v>17</v>
@@ -1711,25 +1778,25 @@
         <v>4</v>
       </c>
       <c r="AW7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>9</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -1758,94 +1825,94 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.579</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.8</v>
+        <v>38.4</v>
       </c>
       <c r="J8" t="n">
-        <v>84.5</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.459</v>
+        <v>0.456</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M8" t="n">
-        <v>19.2</v>
+        <v>19.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.349</v>
+        <v>0.345</v>
       </c>
       <c r="O8" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.737</v>
+        <v>0.739</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S8" t="n">
         <v>33.5</v>
       </c>
       <c r="T8" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>16.4</v>
+        <v>16.8</v>
       </c>
       <c r="W8" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="AC8" t="n">
         <v>4.6</v>
       </c>
-      <c r="Z8" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>107.4</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>5</v>
-      </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>19</v>
@@ -1863,10 +1930,10 @@
         <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1875,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
         <v>5</v>
@@ -1887,19 +1954,19 @@
         <v>5</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ8" t="n">
         <v>21</v>
@@ -1908,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>5</v>
@@ -2057,16 +2124,16 @@
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS9" t="n">
         <v>27</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>2.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2242,7 +2309,7 @@
         <v>28</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
         <v>17</v>
@@ -2269,7 +2336,7 @@
         <v>24</v>
       </c>
       <c r="BA10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>11</v>
@@ -2403,13 +2470,13 @@
         <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>28</v>
@@ -2442,7 +2509,7 @@
         <v>12</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>14</v>
@@ -2594,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
@@ -2633,7 +2700,7 @@
         <v>30</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>8</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>-5.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2788,13 +2855,13 @@
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS13" t="n">
         <v>8</v>
       </c>
       <c r="AT13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU13" t="n">
         <v>20</v>
@@ -2821,7 +2888,7 @@
         <v>22</v>
       </c>
       <c r="BC13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>4.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
         <v>19</v>
@@ -2970,7 +3037,7 @@
         <v>8</v>
       </c>
       <c r="AR14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
         <v>4</v>
@@ -2982,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
@@ -2991,7 +3058,7 @@
         <v>18</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ14" t="n">
         <v>20</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>-1.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
         <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
         <v>15</v>
@@ -3146,7 +3213,7 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
         <v>14</v>
@@ -3164,13 +3231,13 @@
         <v>13</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -3214,91 +3281,91 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>0.222</v>
+        <v>0.235</v>
       </c>
       <c r="H16" t="n">
         <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>34.4</v>
+        <v>33.9</v>
       </c>
       <c r="J16" t="n">
-        <v>76.3</v>
+        <v>75.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.452</v>
+        <v>0.448</v>
       </c>
       <c r="L16" t="n">
         <v>4.9</v>
       </c>
       <c r="M16" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.34</v>
+        <v>0.333</v>
       </c>
       <c r="O16" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P16" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.667</v>
+        <v>0.674</v>
       </c>
       <c r="R16" t="n">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="S16" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="T16" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="U16" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="V16" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="X16" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>90.40000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="AC16" t="n">
         <v>-5.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>28</v>
       </c>
       <c r="AF16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="n">
         <v>28</v>
@@ -3307,13 +3374,13 @@
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3325,7 +3392,7 @@
         <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP16" t="n">
         <v>19</v>
@@ -3337,28 +3404,28 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
       </c>
       <c r="AU16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA16" t="n">
         <v>18</v>
@@ -3367,7 +3434,7 @@
         <v>29</v>
       </c>
       <c r="BC16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
@@ -3492,10 +3559,10 @@
         <v>16</v>
       </c>
       <c r="AJ17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" t="n">
-        <v>0.118</v>
+        <v>0.125</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
@@ -3596,67 +3663,67 @@
         <v>36.4</v>
       </c>
       <c r="J18" t="n">
-        <v>82.5</v>
+        <v>81.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.442</v>
+        <v>0.445</v>
       </c>
       <c r="L18" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M18" t="n">
-        <v>16.5</v>
+        <v>16.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O18" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="P18" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.716</v>
+        <v>0.713</v>
       </c>
       <c r="R18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="S18" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="T18" t="n">
-        <v>41.1</v>
+        <v>40.4</v>
       </c>
       <c r="U18" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="V18" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W18" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y18" t="n">
         <v>4.7</v>
       </c>
-      <c r="Y18" t="n">
-        <v>5.1</v>
-      </c>
       <c r="Z18" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>92.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,19 +3738,19 @@
         <v>19</v>
       </c>
       <c r="AI18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM18" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>18</v>
       </c>
       <c r="AN18" t="n">
         <v>17</v>
@@ -3698,28 +3765,28 @@
         <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AS18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT18" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX18" t="n">
         <v>20</v>
       </c>
       <c r="AY18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
@@ -3880,7 +3947,7 @@
         <v>16</v>
       </c>
       <c r="AR19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS19" t="n">
         <v>19</v>
@@ -3892,7 +3959,7 @@
         <v>10</v>
       </c>
       <c r="AV19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
@@ -3913,7 +3980,7 @@
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
         <v>7</v>
@@ -4053,7 +4120,7 @@
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP20" t="n">
         <v>28</v>
@@ -4068,7 +4135,7 @@
         <v>12</v>
       </c>
       <c r="AT20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>-7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>1</v>
@@ -4229,7 +4296,7 @@
         <v>24</v>
       </c>
       <c r="AM21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN21" t="n">
         <v>24</v>
@@ -4244,10 +4311,10 @@
         <v>26</v>
       </c>
       <c r="AR21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -4438,7 +4505,7 @@
         <v>12</v>
       </c>
       <c r="AV22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW22" t="n">
         <v>25</v>
@@ -4450,7 +4517,7 @@
         <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4578,25 +4645,25 @@
         <v>27</v>
       </c>
       <c r="AH23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI23" t="n">
         <v>23</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
         <v>27</v>
       </c>
       <c r="AN23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO23" t="n">
         <v>18</v>
@@ -4611,10 +4678,10 @@
         <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU23" t="n">
         <v>21</v>
@@ -4626,10 +4693,10 @@
         <v>19</v>
       </c>
       <c r="AX23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY23" t="n">
         <v>12</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>13</v>
       </c>
       <c r="AZ23" t="n">
         <v>13</v>
@@ -4638,7 +4705,7 @@
         <v>22</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>6</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4778,7 +4845,7 @@
         <v>3</v>
       </c>
       <c r="AN24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO24" t="n">
         <v>20</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -4852,115 +4919,115 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.368</v>
+        <v>0.333</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="J25" t="n">
-        <v>77.7</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.457</v>
+        <v>0.454</v>
       </c>
       <c r="L25" t="n">
         <v>5.8</v>
       </c>
       <c r="M25" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O25" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="P25" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.727</v>
+        <v>0.725</v>
       </c>
       <c r="R25" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="S25" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T25" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="U25" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="V25" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="AD25" t="n">
         <v>15</v>
       </c>
-      <c r="W25" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="AA25" t="n">
+      <c r="AE25" t="n">
         <v>21</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>-5.2</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>20</v>
       </c>
       <c r="AF25" t="n">
         <v>25</v>
       </c>
       <c r="AG25" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AH25" t="n">
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>28</v>
@@ -4972,7 +5039,7 @@
         <v>22</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
         <v>26</v>
@@ -4984,28 +5051,28 @@
         <v>16</v>
       </c>
       <c r="AV25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW25" t="n">
         <v>28</v>
       </c>
       <c r="AX25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>20</v>
       </c>
       <c r="BB25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC25" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -5112,28 +5179,28 @@
         <v>-3</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>16</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>1</v>
       </c>
       <c r="AI26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
         <v>25</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>22</v>
@@ -5154,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS26" t="n">
         <v>24</v>
@@ -5166,7 +5233,7 @@
         <v>30</v>
       </c>
       <c r="AV26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW26" t="n">
         <v>17</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>9.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -5309,7 +5376,7 @@
         <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -5476,13 +5543,13 @@
         <v>-8</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
       </c>
       <c r="AF28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG28" t="n">
         <v>29</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5679,7 +5746,7 @@
         <v>7</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
         <v>4</v>
@@ -5700,13 +5767,13 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
         <v>6</v>
@@ -5721,7 +5788,7 @@
         <v>28</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
         <v>11</v>
@@ -5733,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>7.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>5</v>
@@ -5882,7 +5949,7 @@
         <v>12</v>
       </c>
       <c r="AR30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5903,7 +5970,7 @@
         <v>23</v>
       </c>
       <c r="AY30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ30" t="n">
         <v>27</v>
@@ -5912,7 +5979,7 @@
         <v>4</v>
       </c>
       <c r="BB30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC30" t="n">
         <v>4</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6034,16 +6101,16 @@
         <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI31" t="n">
         <v>10</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
@@ -6052,10 +6119,10 @@
         <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP31" t="n">
         <v>13</v>
@@ -6064,7 +6131,7 @@
         <v>7</v>
       </c>
       <c r="AR31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS31" t="n">
         <v>13</v>
@@ -6076,7 +6143,7 @@
         <v>19</v>
       </c>
       <c r="AV31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
@@ -6085,7 +6152,7 @@
         <v>3</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-6-2007-08</t>
+          <t>2007-12-06</t>
         </is>
       </c>
     </row>
